--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -903,6 +903,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,24 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1276,29 +1276,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -1617,31 +1617,31 @@
         <v>16800000</v>
       </c>
       <c r="B15" s="46">
-        <v>43509</v>
+        <v>43725</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="46">
-        <v>43525</v>
+        <v>43739</v>
       </c>
       <c r="E15" s="83">
-        <v>2354670</v>
+        <v>2566080</v>
       </c>
       <c r="F15" s="83">
-        <v>2845978</v>
+        <v>2733394</v>
       </c>
       <c r="G15" s="47">
         <f>F15/A$15</f>
-        <v>0.16940345238095239</v>
+        <v>0.16270202380952381</v>
       </c>
       <c r="H15" s="89">
         <f>A15-F15</f>
-        <v>13954022</v>
+        <v>14066606</v>
       </c>
       <c r="I15" s="48">
         <f>1-G15</f>
-        <v>0.83059654761904755</v>
+        <v>0.83729797619047619</v>
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="50"/>
@@ -1650,29 +1650,29 @@
     <row r="16" spans="1:13" ht="12.75" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="51"/>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="94">
         <v>43556</v>
       </c>
-      <c r="E16" s="106">
+      <c r="E16" s="95">
         <v>5296185</v>
       </c>
-      <c r="F16" s="106">
+      <c r="F16" s="95">
         <v>5728621</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="96">
         <f>F16/A15</f>
         <v>0.34098934523809526</v>
       </c>
-      <c r="H16" s="108">
-        <f t="shared" ref="H16:I20" si="2">H15-F16</f>
-        <v>8225401</v>
-      </c>
-      <c r="I16" s="109">
+      <c r="H16" s="97">
+        <f t="shared" ref="H16:I16" si="2">H15-F16</f>
+        <v>8337985</v>
+      </c>
+      <c r="I16" s="98">
         <f t="shared" si="2"/>
-        <v>0.48960720238095229</v>
+        <v>0.49630863095238092</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1813,23 +1813,23 @@
       <c r="D26" s="66"/>
       <c r="E26" s="67">
         <f>SUM(E15:E25)</f>
-        <v>7650855</v>
+        <v>7862265</v>
       </c>
       <c r="F26" s="68">
         <f>SUM(F15:F25)</f>
-        <v>8574599</v>
+        <v>8462015</v>
       </c>
       <c r="G26" s="69">
         <f>SUM(G15:G25)</f>
-        <v>0.51039279761904766</v>
+        <v>0.50369136904761902</v>
       </c>
       <c r="H26" s="70">
         <f>A15-F26</f>
-        <v>8225401</v>
+        <v>8337985</v>
       </c>
       <c r="I26" s="71">
         <f>1-G26</f>
-        <v>0.48960720238095234</v>
+        <v>0.49630863095238098</v>
       </c>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -1848,12 +1848,12 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1862,10 +1862,10 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="103"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="73" t="s">
         <v>15</v>
       </c>
@@ -1880,18 +1880,18 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="101">
+      <c r="A32" s="107">
         <f>A15-F26</f>
-        <v>8225401</v>
-      </c>
-      <c r="B32" s="102"/>
+        <v>8337985</v>
+      </c>
+      <c r="B32" s="108"/>
       <c r="C32" s="74">
         <f>1-G26</f>
-        <v>0.48960720238095234</v>
+        <v>0.49630863095238098</v>
       </c>
       <c r="D32" s="75">
         <f>(C32/0.8)*100</f>
-        <v>61.200900297619043</v>
+        <v>62.038578869047626</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>39</v>
@@ -1946,8 +1946,8 @@
       <c r="F36" s="77"/>
       <c r="G36" s="77"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="106"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="78"/>
@@ -2041,9 +2041,9 @@
     </row>
     <row r="46" spans="1:11" ht="15.6">
       <c r="A46" s="7"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="97"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103"/>
       <c r="E46" s="82"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2060,8 +2060,8 @@
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
       <c r="H47" s="77"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="100"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="106"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="78"/>
@@ -2072,8 +2072,8 @@
       <c r="F48" s="80"/>
       <c r="G48" s="80"/>
       <c r="H48" s="79"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="78"/>
@@ -2084,8 +2084,8 @@
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="7"/>
@@ -2098,12 +2098,12 @@
       <c r="H50" s="7"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="B55" s="99"/>
-      <c r="C55" s="100"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="106"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="99"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="106"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -160,7 +160,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -254,13 +254,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -667,7 +660,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -903,38 +896,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,6 +905,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1254,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:I16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1292,13 +1270,13 @@
       <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -1649,30 +1627,32 @@
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1">
       <c r="A16" s="23"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="93" t="s">
+      <c r="B16" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="94">
-        <v>43556</v>
-      </c>
-      <c r="E16" s="95">
-        <v>5296185</v>
-      </c>
-      <c r="F16" s="95">
-        <v>5728621</v>
-      </c>
-      <c r="G16" s="96">
+      <c r="C16" s="46">
+        <v>43753</v>
+      </c>
+      <c r="D16" s="51">
+        <v>43756</v>
+      </c>
+      <c r="E16" s="104">
+        <v>2846745</v>
+      </c>
+      <c r="F16" s="104">
+        <v>2962109</v>
+      </c>
+      <c r="G16" s="47">
         <f>F16/A15</f>
-        <v>0.34098934523809526</v>
-      </c>
-      <c r="H16" s="97">
+        <v>0.1763160119047619</v>
+      </c>
+      <c r="H16" s="84">
         <f t="shared" ref="H16:I16" si="2">H15-F16</f>
-        <v>8337985</v>
-      </c>
-      <c r="I16" s="98">
+        <v>11104497</v>
+      </c>
+      <c r="I16" s="52">
         <f t="shared" si="2"/>
-        <v>0.49630863095238092</v>
+        <v>0.66098196428571432</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1813,23 +1793,23 @@
       <c r="D26" s="66"/>
       <c r="E26" s="67">
         <f>SUM(E15:E25)</f>
-        <v>7862265</v>
+        <v>5412825</v>
       </c>
       <c r="F26" s="68">
         <f>SUM(F15:F25)</f>
-        <v>8462015</v>
+        <v>5695503</v>
       </c>
       <c r="G26" s="69">
         <f>SUM(G15:G25)</f>
-        <v>0.50369136904761902</v>
+        <v>0.33901803571428568</v>
       </c>
       <c r="H26" s="70">
         <f>A15-F26</f>
-        <v>8337985</v>
+        <v>11104497</v>
       </c>
       <c r="I26" s="71">
         <f>1-G26</f>
-        <v>0.49630863095238098</v>
+        <v>0.66098196428571432</v>
       </c>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -1862,10 +1842,10 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="109"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="73" t="s">
         <v>15</v>
       </c>
@@ -1880,18 +1860,18 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="107">
+      <c r="A32" s="95">
         <f>A15-F26</f>
-        <v>8337985</v>
-      </c>
-      <c r="B32" s="108"/>
+        <v>11104497</v>
+      </c>
+      <c r="B32" s="96"/>
       <c r="C32" s="74">
         <f>1-G26</f>
-        <v>0.49630863095238098</v>
+        <v>0.66098196428571432</v>
       </c>
       <c r="D32" s="75">
         <f>(C32/0.8)*100</f>
-        <v>62.038578869047626</v>
+        <v>82.622745535714287</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>39</v>
@@ -1946,8 +1926,8 @@
       <c r="F36" s="77"/>
       <c r="G36" s="77"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="106"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="94"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="78"/>
@@ -2041,9 +2021,9 @@
     </row>
     <row r="46" spans="1:11" ht="15.6">
       <c r="A46" s="7"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="103"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="102"/>
       <c r="E46" s="82"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2060,8 +2040,8 @@
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
       <c r="H47" s="77"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="106"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="94"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="78"/>
@@ -2072,8 +2052,8 @@
       <c r="F48" s="80"/>
       <c r="G48" s="80"/>
       <c r="H48" s="79"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="78"/>
@@ -2084,8 +2064,8 @@
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="7"/>
@@ -2098,18 +2078,23 @@
       <c r="H50" s="7"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="B55" s="105"/>
-      <c r="C55" s="106"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="94"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="105"/>
-      <c r="C62" s="106"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="94"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A31:B31"/>
@@ -2117,11 +2102,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -896,6 +896,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,23 +922,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1254,29 +1254,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -1636,14 +1636,14 @@
       <c r="D16" s="51">
         <v>43756</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="93">
         <v>2846745</v>
       </c>
-      <c r="F16" s="104">
+      <c r="F16" s="93">
         <v>2962109</v>
       </c>
       <c r="G16" s="47">
-        <f>F16/A15</f>
+        <f>F16/A$15</f>
         <v>0.1763160119047619</v>
       </c>
       <c r="H16" s="84">
@@ -1660,14 +1660,33 @@
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1">
       <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="52"/>
+      <c r="B17" s="54">
+        <v>43767</v>
+      </c>
+      <c r="C17" s="54">
+        <v>43769</v>
+      </c>
+      <c r="D17" s="54">
+        <v>43770</v>
+      </c>
+      <c r="E17" s="84">
+        <v>524880</v>
+      </c>
+      <c r="F17" s="84">
+        <v>587765</v>
+      </c>
+      <c r="G17" s="47">
+        <f>F17/A$15</f>
+        <v>3.4986011904761902E-2</v>
+      </c>
+      <c r="H17" s="84">
+        <f t="shared" ref="H17" si="3">H16-F17</f>
+        <v>10516732</v>
+      </c>
+      <c r="I17" s="52">
+        <f t="shared" ref="I17" si="4">I16-G17</f>
+        <v>0.6259959523809524</v>
+      </c>
       <c r="J17" s="49"/>
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
@@ -1793,23 +1812,23 @@
       <c r="D26" s="66"/>
       <c r="E26" s="67">
         <f>SUM(E15:E25)</f>
-        <v>5412825</v>
+        <v>5937705</v>
       </c>
       <c r="F26" s="68">
         <f>SUM(F15:F25)</f>
-        <v>5695503</v>
+        <v>6283268</v>
       </c>
       <c r="G26" s="69">
         <f>SUM(G15:G25)</f>
-        <v>0.33901803571428568</v>
+        <v>0.3740040476190476</v>
       </c>
       <c r="H26" s="70">
         <f>A15-F26</f>
-        <v>11104497</v>
+        <v>10516732</v>
       </c>
       <c r="I26" s="71">
         <f>1-G26</f>
-        <v>0.66098196428571432</v>
+        <v>0.6259959523809524</v>
       </c>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -1828,12 +1847,12 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1842,10 +1861,10 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="97"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="73" t="s">
         <v>15</v>
       </c>
@@ -1860,18 +1879,18 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="95">
+      <c r="A32" s="102">
         <f>A15-F26</f>
-        <v>11104497</v>
-      </c>
-      <c r="B32" s="96"/>
+        <v>10516732</v>
+      </c>
+      <c r="B32" s="103"/>
       <c r="C32" s="74">
         <f>1-G26</f>
-        <v>0.66098196428571432</v>
+        <v>0.6259959523809524</v>
       </c>
       <c r="D32" s="75">
         <f>(C32/0.8)*100</f>
-        <v>82.622745535714287</v>
+        <v>78.249494047619052</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>39</v>
@@ -1926,8 +1945,8 @@
       <c r="F36" s="77"/>
       <c r="G36" s="77"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="94"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="101"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="78"/>
@@ -2021,9 +2040,9 @@
     </row>
     <row r="46" spans="1:11" ht="15.6">
       <c r="A46" s="7"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="82"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2040,8 +2059,8 @@
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
       <c r="H47" s="77"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="94"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="78"/>
@@ -2052,8 +2071,8 @@
       <c r="F48" s="80"/>
       <c r="G48" s="80"/>
       <c r="H48" s="79"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="98"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="78"/>
@@ -2064,8 +2083,8 @@
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="7"/>
@@ -2078,23 +2097,18 @@
       <c r="H50" s="7"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="B55" s="93"/>
-      <c r="C55" s="94"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="101"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="93"/>
-      <c r="C62" s="94"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="101"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A31:B31"/>
@@ -2102,6 +2116,11 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>№Поз</t>
   </si>
@@ -899,20 +899,6 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,6 +908,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G17" sqref="G17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1254,29 +1254,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -1663,8 +1663,8 @@
       <c r="B17" s="54">
         <v>43767</v>
       </c>
-      <c r="C17" s="54">
-        <v>43769</v>
+      <c r="C17" s="54" t="s">
+        <v>38</v>
       </c>
       <c r="D17" s="54">
         <v>43770</v>
@@ -1693,14 +1693,33 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="52"/>
+      <c r="B18" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="54">
+        <v>43777</v>
+      </c>
+      <c r="D18" s="54">
+        <v>43782</v>
+      </c>
+      <c r="E18" s="85">
+        <v>1337715</v>
+      </c>
+      <c r="F18" s="86">
+        <v>1385395</v>
+      </c>
+      <c r="G18" s="47">
+        <f>F18/A$15</f>
+        <v>8.2463988095238097E-2</v>
+      </c>
+      <c r="H18" s="84">
+        <f t="shared" ref="H18" si="5">H17-F18</f>
+        <v>9131337</v>
+      </c>
+      <c r="I18" s="52">
+        <f t="shared" ref="I18" si="6">I17-G18</f>
+        <v>0.54353196428571426</v>
+      </c>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
       <c r="L18" s="7"/>
@@ -1812,23 +1831,23 @@
       <c r="D26" s="66"/>
       <c r="E26" s="67">
         <f>SUM(E15:E25)</f>
-        <v>5937705</v>
+        <v>7275420</v>
       </c>
       <c r="F26" s="68">
         <f>SUM(F15:F25)</f>
-        <v>6283268</v>
+        <v>7668663</v>
       </c>
       <c r="G26" s="69">
         <f>SUM(G15:G25)</f>
-        <v>0.3740040476190476</v>
+        <v>0.45646803571428568</v>
       </c>
       <c r="H26" s="70">
         <f>A15-F26</f>
-        <v>10516732</v>
+        <v>9131337</v>
       </c>
       <c r="I26" s="71">
         <f>1-G26</f>
-        <v>0.6259959523809524</v>
+        <v>0.54353196428571438</v>
       </c>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -1847,12 +1866,12 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1861,10 +1880,10 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="73" t="s">
         <v>15</v>
       </c>
@@ -1879,18 +1898,18 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="102">
+      <c r="A32" s="96">
         <f>A15-F26</f>
-        <v>10516732</v>
-      </c>
-      <c r="B32" s="103"/>
+        <v>9131337</v>
+      </c>
+      <c r="B32" s="97"/>
       <c r="C32" s="74">
         <f>1-G26</f>
-        <v>0.6259959523809524</v>
+        <v>0.54353196428571438</v>
       </c>
       <c r="D32" s="75">
         <f>(C32/0.8)*100</f>
-        <v>78.249494047619052</v>
+        <v>67.941495535714296</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>39</v>
@@ -1945,8 +1964,8 @@
       <c r="F36" s="77"/>
       <c r="G36" s="77"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="101"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="95"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="78"/>
@@ -2040,9 +2059,9 @@
     </row>
     <row r="46" spans="1:11" ht="15.6">
       <c r="A46" s="7"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103"/>
       <c r="E46" s="82"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2059,8 +2078,8 @@
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
       <c r="H47" s="77"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="101"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="95"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="78"/>
@@ -2071,8 +2090,8 @@
       <c r="F48" s="80"/>
       <c r="G48" s="80"/>
       <c r="H48" s="79"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="78"/>
@@ -2083,8 +2102,8 @@
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="7"/>
@@ -2097,18 +2116,23 @@
       <c r="H50" s="7"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="B55" s="100"/>
-      <c r="C55" s="101"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="95"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="100"/>
-      <c r="C62" s="101"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="95"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A31:B31"/>
@@ -2116,11 +2140,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>№Поз</t>
   </si>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:I18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1490,10 +1490,12 @@
       <c r="E10" s="33">
         <v>80</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="26">
+        <v>15</v>
+      </c>
       <c r="G10" s="25">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
@@ -1518,10 +1520,12 @@
       <c r="E11" s="33">
         <v>80</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="26">
+        <v>9</v>
+      </c>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="35"/>
@@ -1726,14 +1730,33 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="52"/>
+      <c r="B19" s="54">
+        <v>43789</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="54">
+        <v>43801</v>
+      </c>
+      <c r="E19" s="84">
+        <v>2074072</v>
+      </c>
+      <c r="F19" s="84">
+        <v>2166293</v>
+      </c>
+      <c r="G19" s="55">
+        <f>F19/A$15</f>
+        <v>0.1289460119047619</v>
+      </c>
+      <c r="H19" s="84">
+        <f t="shared" ref="H19" si="7">H18-F19</f>
+        <v>6965044</v>
+      </c>
+      <c r="I19" s="52">
+        <f t="shared" ref="I19" si="8">I18-G19</f>
+        <v>0.41458595238095236</v>
+      </c>
       <c r="J19" s="49"/>
       <c r="K19" s="56"/>
       <c r="L19" s="7"/>
@@ -1831,23 +1854,23 @@
       <c r="D26" s="66"/>
       <c r="E26" s="67">
         <f>SUM(E15:E25)</f>
-        <v>7275420</v>
+        <v>9349492</v>
       </c>
       <c r="F26" s="68">
         <f>SUM(F15:F25)</f>
-        <v>7668663</v>
+        <v>9834956</v>
       </c>
       <c r="G26" s="69">
         <f>SUM(G15:G25)</f>
-        <v>0.45646803571428568</v>
+        <v>0.58541404761904758</v>
       </c>
       <c r="H26" s="70">
         <f>A15-F26</f>
-        <v>9131337</v>
+        <v>6965044</v>
       </c>
       <c r="I26" s="71">
         <f>1-G26</f>
-        <v>0.54353196428571438</v>
+        <v>0.41458595238095242</v>
       </c>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -1900,16 +1923,16 @@
     <row r="32" spans="1:12">
       <c r="A32" s="96">
         <f>A15-F26</f>
-        <v>9131337</v>
+        <v>6965044</v>
       </c>
       <c r="B32" s="97"/>
       <c r="C32" s="74">
         <f>1-G26</f>
-        <v>0.54353196428571438</v>
+        <v>0.41458595238095242</v>
       </c>
       <c r="D32" s="75">
         <f>(C32/0.8)*100</f>
-        <v>67.941495535714296</v>
+        <v>51.823244047619042</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>39</v>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>№Поз</t>
   </si>
@@ -899,6 +899,20 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,20 +922,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1254,29 +1254,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -1763,28 +1763,66 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="52"/>
+      <c r="B20" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="54">
+        <v>43817</v>
+      </c>
+      <c r="D20" s="54">
+        <v>43833</v>
+      </c>
+      <c r="E20" s="84">
+        <v>3422655</v>
+      </c>
+      <c r="F20" s="84">
+        <v>3550680</v>
+      </c>
+      <c r="G20" s="55">
+        <f>F20/A$15</f>
+        <v>0.21135000000000001</v>
+      </c>
+      <c r="H20" s="84">
+        <f t="shared" ref="H20" si="9">H19-F20</f>
+        <v>3414364</v>
+      </c>
+      <c r="I20" s="52">
+        <f t="shared" ref="I20" si="10">I19-G20</f>
+        <v>0.20323595238095235</v>
+      </c>
       <c r="J20" s="49"/>
       <c r="K20" s="49"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="52"/>
+      <c r="B21" s="54">
+        <v>43826</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="54">
+        <v>43468</v>
+      </c>
+      <c r="E21" s="84">
+        <v>934344</v>
+      </c>
+      <c r="F21" s="84">
+        <v>969023</v>
+      </c>
+      <c r="G21" s="55">
+        <f>F21/A$15</f>
+        <v>5.7679940476190475E-2</v>
+      </c>
+      <c r="H21" s="84">
+        <f t="shared" ref="H21" si="11">H20-F21</f>
+        <v>2445341</v>
+      </c>
+      <c r="I21" s="52">
+        <f t="shared" ref="I21" si="12">I20-G21</f>
+        <v>0.14555601190476186</v>
+      </c>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
       <c r="L21" s="7"/>
@@ -1854,23 +1892,23 @@
       <c r="D26" s="66"/>
       <c r="E26" s="67">
         <f>SUM(E15:E25)</f>
-        <v>9349492</v>
+        <v>13706491</v>
       </c>
       <c r="F26" s="68">
         <f>SUM(F15:F25)</f>
-        <v>9834956</v>
+        <v>14354659</v>
       </c>
       <c r="G26" s="69">
         <f>SUM(G15:G25)</f>
-        <v>0.58541404761904758</v>
+        <v>0.85444398809523814</v>
       </c>
       <c r="H26" s="70">
         <f>A15-F26</f>
-        <v>6965044</v>
+        <v>2445341</v>
       </c>
       <c r="I26" s="71">
         <f>1-G26</f>
-        <v>0.41458595238095242</v>
+        <v>0.14555601190476186</v>
       </c>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -1889,12 +1927,12 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1903,10 +1941,10 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="98"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="73" t="s">
         <v>15</v>
       </c>
@@ -1921,18 +1959,18 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="96">
+      <c r="A32" s="102">
         <f>A15-F26</f>
-        <v>6965044</v>
-      </c>
-      <c r="B32" s="97"/>
+        <v>2445341</v>
+      </c>
+      <c r="B32" s="103"/>
       <c r="C32" s="74">
         <f>1-G26</f>
-        <v>0.41458595238095242</v>
+        <v>0.14555601190476186</v>
       </c>
       <c r="D32" s="75">
         <f>(C32/0.8)*100</f>
-        <v>51.823244047619042</v>
+        <v>18.194501488095234</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>39</v>
@@ -1987,8 +2025,8 @@
       <c r="F36" s="77"/>
       <c r="G36" s="77"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="95"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="101"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="78"/>
@@ -2082,9 +2120,9 @@
     </row>
     <row r="46" spans="1:11" ht="15.6">
       <c r="A46" s="7"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="103"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="82"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2101,8 +2139,8 @@
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
       <c r="H47" s="77"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="95"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="78"/>
@@ -2113,8 +2151,8 @@
       <c r="F48" s="80"/>
       <c r="G48" s="80"/>
       <c r="H48" s="79"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="78"/>
@@ -2125,8 +2163,8 @@
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="7"/>
@@ -2139,23 +2177,18 @@
       <c r="H50" s="7"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="101"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="94"/>
-      <c r="C62" s="95"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="101"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A31:B31"/>
@@ -2163,6 +2196,11 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>№Поз</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Формокомплект бутылки «Фляга 0,2 л»  тип XIII-В-28-2-200-3 (владелец ООО "ВЕДАТРАНЗИТ" Дог. аренды имущества №3 от 23.01.2019 г.)</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 195 гр.)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -899,18 +902,19 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -922,6 +926,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1232,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:I21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1254,29 +1272,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -1462,10 +1480,12 @@
       <c r="E9" s="33">
         <v>40</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="26">
+        <v>17</v>
+      </c>
       <c r="G9" s="25">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="32"/>
@@ -1491,11 +1511,11 @@
         <v>80</v>
       </c>
       <c r="F10" s="26">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" s="25">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
@@ -1521,11 +1541,11 @@
         <v>80</v>
       </c>
       <c r="F11" s="26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="35"/>
@@ -1589,7 +1609,9 @@
       <c r="I14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="44"/>
+      <c r="J14" s="43" t="s">
+        <v>41</v>
+      </c>
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
     </row>
@@ -1614,7 +1636,7 @@
         <v>2733394</v>
       </c>
       <c r="G15" s="47">
-        <f>F15/A$15</f>
+        <f t="shared" ref="G15:G22" si="2">F15/A$15</f>
         <v>0.16270202380952381</v>
       </c>
       <c r="H15" s="89">
@@ -1625,7 +1647,9 @@
         <f>1-G15</f>
         <v>0.83729797619047619</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="94">
+        <v>192</v>
+      </c>
       <c r="K15" s="50"/>
       <c r="L15" s="50"/>
     </row>
@@ -1647,18 +1671,18 @@
         <v>2962109</v>
       </c>
       <c r="G16" s="47">
-        <f>F16/A$15</f>
+        <f t="shared" si="2"/>
         <v>0.1763160119047619</v>
       </c>
       <c r="H16" s="84">
-        <f t="shared" ref="H16:I16" si="2">H15-F16</f>
+        <f t="shared" ref="H16:I16" si="3">H15-F16</f>
         <v>11104497</v>
       </c>
       <c r="I16" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66098196428571432</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
@@ -1680,18 +1704,18 @@
         <v>587765</v>
       </c>
       <c r="G17" s="47">
-        <f>F17/A$15</f>
+        <f t="shared" si="2"/>
         <v>3.4986011904761902E-2</v>
       </c>
       <c r="H17" s="84">
-        <f t="shared" ref="H17" si="3">H16-F17</f>
+        <f t="shared" ref="H17" si="4">H16-F17</f>
         <v>10516732</v>
       </c>
       <c r="I17" s="52">
-        <f t="shared" ref="I17" si="4">I16-G17</f>
+        <f t="shared" ref="I17" si="5">I16-G17</f>
         <v>0.6259959523809524</v>
       </c>
-      <c r="J17" s="49"/>
+      <c r="J17" s="95"/>
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
     </row>
@@ -1713,18 +1737,18 @@
         <v>1385395</v>
       </c>
       <c r="G18" s="47">
-        <f>F18/A$15</f>
+        <f t="shared" si="2"/>
         <v>8.2463988095238097E-2</v>
       </c>
       <c r="H18" s="84">
-        <f t="shared" ref="H18" si="5">H17-F18</f>
+        <f t="shared" ref="H18" si="6">H17-F18</f>
         <v>9131337</v>
       </c>
       <c r="I18" s="52">
-        <f t="shared" ref="I18" si="6">I17-G18</f>
+        <f t="shared" ref="I18" si="7">I17-G18</f>
         <v>0.54353196428571426</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="95"/>
       <c r="K18" s="49"/>
       <c r="L18" s="7"/>
     </row>
@@ -1746,18 +1770,20 @@
         <v>2166293</v>
       </c>
       <c r="G19" s="55">
-        <f>F19/A$15</f>
+        <f t="shared" si="2"/>
         <v>0.1289460119047619</v>
       </c>
       <c r="H19" s="84">
-        <f t="shared" ref="H19" si="7">H18-F19</f>
+        <f t="shared" ref="H19" si="8">H18-F19</f>
         <v>6965044</v>
       </c>
       <c r="I19" s="52">
-        <f t="shared" ref="I19" si="8">I18-G19</f>
+        <f t="shared" ref="I19" si="9">I18-G19</f>
         <v>0.41458595238095236</v>
       </c>
-      <c r="J19" s="49"/>
+      <c r="J19" s="95">
+        <v>192</v>
+      </c>
       <c r="K19" s="56"/>
       <c r="L19" s="7"/>
     </row>
@@ -1779,18 +1805,18 @@
         <v>3550680</v>
       </c>
       <c r="G20" s="55">
-        <f>F20/A$15</f>
+        <f t="shared" si="2"/>
         <v>0.21135000000000001</v>
       </c>
       <c r="H20" s="84">
-        <f t="shared" ref="H20" si="9">H19-F20</f>
+        <f t="shared" ref="H20" si="10">H19-F20</f>
         <v>3414364</v>
       </c>
       <c r="I20" s="52">
-        <f t="shared" ref="I20" si="10">I19-G20</f>
+        <f t="shared" ref="I20" si="11">I19-G20</f>
         <v>0.20323595238095235</v>
       </c>
-      <c r="J20" s="49"/>
+      <c r="J20" s="95"/>
       <c r="K20" s="49"/>
       <c r="L20" s="7"/>
     </row>
@@ -1812,32 +1838,53 @@
         <v>969023</v>
       </c>
       <c r="G21" s="55">
-        <f>F21/A$15</f>
+        <f t="shared" si="2"/>
         <v>5.7679940476190475E-2</v>
       </c>
       <c r="H21" s="84">
-        <f t="shared" ref="H21" si="11">H20-F21</f>
+        <f t="shared" ref="H21" si="12">H20-F21</f>
         <v>2445341</v>
       </c>
       <c r="I21" s="52">
-        <f t="shared" ref="I21" si="12">I20-G21</f>
+        <f t="shared" ref="I21" si="13">I20-G21</f>
         <v>0.14555601190476186</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="95"/>
       <c r="K21" s="49"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="49"/>
+      <c r="B22" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="54">
+        <v>43851</v>
+      </c>
+      <c r="D22" s="54">
+        <v>43852</v>
+      </c>
+      <c r="E22" s="84">
+        <v>3991275</v>
+      </c>
+      <c r="F22" s="84">
+        <v>4144291</v>
+      </c>
+      <c r="G22" s="55">
+        <f t="shared" si="2"/>
+        <v>0.24668398809523809</v>
+      </c>
+      <c r="H22" s="84">
+        <f t="shared" ref="H22" si="14">H21-F22</f>
+        <v>-1698950</v>
+      </c>
+      <c r="I22" s="52">
+        <f t="shared" ref="I22" si="15">I21-G22</f>
+        <v>-0.10112797619047623</v>
+      </c>
+      <c r="J22" s="95">
+        <v>193</v>
+      </c>
       <c r="K22" s="49"/>
       <c r="L22" s="7"/>
     </row>
@@ -1851,7 +1898,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="84"/>
       <c r="I23" s="52"/>
-      <c r="J23" s="49"/>
+      <c r="J23" s="95"/>
       <c r="K23" s="49"/>
       <c r="L23" s="7"/>
     </row>
@@ -1865,7 +1912,7 @@
       <c r="G24" s="58"/>
       <c r="H24" s="84"/>
       <c r="I24" s="57"/>
-      <c r="J24" s="49"/>
+      <c r="J24" s="96"/>
       <c r="K24" s="49"/>
       <c r="L24" s="7"/>
     </row>
@@ -1879,7 +1926,7 @@
       <c r="G25" s="62"/>
       <c r="H25" s="90"/>
       <c r="I25" s="63"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="97"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
@@ -1892,25 +1939,25 @@
       <c r="D26" s="66"/>
       <c r="E26" s="67">
         <f>SUM(E15:E25)</f>
-        <v>13706491</v>
+        <v>17697766</v>
       </c>
       <c r="F26" s="68">
         <f>SUM(F15:F25)</f>
-        <v>14354659</v>
+        <v>18498950</v>
       </c>
       <c r="G26" s="69">
         <f>SUM(G15:G25)</f>
-        <v>0.85444398809523814</v>
+        <v>1.1011279761904762</v>
       </c>
       <c r="H26" s="70">
         <f>A15-F26</f>
-        <v>2445341</v>
+        <v>-1698950</v>
       </c>
       <c r="I26" s="71">
         <f>1-G26</f>
-        <v>0.14555601190476186</v>
-      </c>
-      <c r="J26" s="72"/>
+        <v>-0.1011279761904762</v>
+      </c>
+      <c r="J26" s="98"/>
       <c r="K26" s="72"/>
       <c r="L26" s="72"/>
     </row>
@@ -1927,12 +1974,12 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1941,10 +1988,10 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="104"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="73" t="s">
         <v>15</v>
       </c>
@@ -1959,18 +2006,18 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="102">
+      <c r="A32" s="101">
         <f>A15-F26</f>
-        <v>2445341</v>
-      </c>
-      <c r="B32" s="103"/>
+        <v>-1698950</v>
+      </c>
+      <c r="B32" s="102"/>
       <c r="C32" s="74">
         <f>1-G26</f>
-        <v>0.14555601190476186</v>
+        <v>-0.1011279761904762</v>
       </c>
       <c r="D32" s="75">
         <f>(C32/0.8)*100</f>
-        <v>18.194501488095234</v>
+        <v>-12.640997023809526</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>39</v>
@@ -2025,8 +2072,8 @@
       <c r="F36" s="77"/>
       <c r="G36" s="77"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="101"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="78"/>
@@ -2120,9 +2167,9 @@
     </row>
     <row r="46" spans="1:11" ht="15.6">
       <c r="A46" s="7"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="108"/>
       <c r="E46" s="82"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -2139,8 +2186,8 @@
       <c r="F47" s="77"/>
       <c r="G47" s="77"/>
       <c r="H47" s="77"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="101"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="100"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="78"/>
@@ -2151,8 +2198,8 @@
       <c r="F48" s="80"/>
       <c r="G48" s="80"/>
       <c r="H48" s="79"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="78"/>
@@ -2163,8 +2210,8 @@
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="7"/>
@@ -2177,18 +2224,23 @@
       <c r="H50" s="7"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="B55" s="100"/>
-      <c r="C55" s="101"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="100"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="100"/>
-      <c r="C62" s="101"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="100"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A31:B31"/>
@@ -2196,11 +2248,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -833,12 +833,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -917,6 +912,29 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,20 +944,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1250,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1272,29 +1276,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -1359,7 +1363,7 @@
       <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="88" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="17">
@@ -1481,11 +1485,11 @@
         <v>40</v>
       </c>
       <c r="F9" s="26">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G9" s="25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="32"/>
@@ -1511,11 +1515,11 @@
         <v>80</v>
       </c>
       <c r="F10" s="26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G10" s="25">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
@@ -1531,7 +1535,7 @@
       <c r="B11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="89" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="25">
@@ -1541,11 +1545,11 @@
         <v>80</v>
       </c>
       <c r="F11" s="26">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="35"/>
@@ -1629,17 +1633,17 @@
       <c r="D15" s="46">
         <v>43739</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="80">
         <v>2566080</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="80">
         <v>2733394</v>
       </c>
       <c r="G15" s="47">
-        <f t="shared" ref="G15:G22" si="2">F15/A$15</f>
+        <f t="shared" ref="G15:G23" si="2">F15/A$15</f>
         <v>0.16270202380952381</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="86">
         <f>A15-F15</f>
         <v>14066606</v>
       </c>
@@ -1647,7 +1651,7 @@
         <f>1-G15</f>
         <v>0.83729797619047619</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="91">
         <v>192</v>
       </c>
       <c r="K15" s="50"/>
@@ -1664,17 +1668,17 @@
       <c r="D16" s="51">
         <v>43756</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="90">
         <v>2846745</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="90">
         <v>2962109</v>
       </c>
       <c r="G16" s="47">
         <f t="shared" si="2"/>
         <v>0.1763160119047619</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="81">
         <f t="shared" ref="H16:I16" si="3">H15-F16</f>
         <v>11104497</v>
       </c>
@@ -1682,7 +1686,7 @@
         <f t="shared" si="3"/>
         <v>0.66098196428571432</v>
       </c>
-      <c r="J16" s="95"/>
+      <c r="J16" s="92"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
@@ -1697,17 +1701,17 @@
       <c r="D17" s="54">
         <v>43770</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="81">
         <v>524880</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="81">
         <v>587765</v>
       </c>
       <c r="G17" s="47">
         <f t="shared" si="2"/>
         <v>3.4986011904761902E-2</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="81">
         <f t="shared" ref="H17" si="4">H16-F17</f>
         <v>10516732</v>
       </c>
@@ -1715,7 +1719,7 @@
         <f t="shared" ref="I17" si="5">I16-G17</f>
         <v>0.6259959523809524</v>
       </c>
-      <c r="J17" s="95"/>
+      <c r="J17" s="92"/>
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
     </row>
@@ -1730,17 +1734,17 @@
       <c r="D18" s="54">
         <v>43782</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="82">
         <v>1337715</v>
       </c>
-      <c r="F18" s="86">
+      <c r="F18" s="83">
         <v>1385395</v>
       </c>
       <c r="G18" s="47">
         <f t="shared" si="2"/>
         <v>8.2463988095238097E-2</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="81">
         <f t="shared" ref="H18" si="6">H17-F18</f>
         <v>9131337</v>
       </c>
@@ -1748,7 +1752,7 @@
         <f t="shared" ref="I18" si="7">I17-G18</f>
         <v>0.54353196428571426</v>
       </c>
-      <c r="J18" s="95"/>
+      <c r="J18" s="92"/>
       <c r="K18" s="49"/>
       <c r="L18" s="7"/>
     </row>
@@ -1763,17 +1767,17 @@
       <c r="D19" s="54">
         <v>43801</v>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="81">
         <v>2074072</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="81">
         <v>2166293</v>
       </c>
       <c r="G19" s="55">
         <f t="shared" si="2"/>
         <v>0.1289460119047619</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="81">
         <f t="shared" ref="H19" si="8">H18-F19</f>
         <v>6965044</v>
       </c>
@@ -1781,7 +1785,7 @@
         <f t="shared" ref="I19" si="9">I18-G19</f>
         <v>0.41458595238095236</v>
       </c>
-      <c r="J19" s="95">
+      <c r="J19" s="92">
         <v>192</v>
       </c>
       <c r="K19" s="56"/>
@@ -1798,17 +1802,17 @@
       <c r="D20" s="54">
         <v>43833</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="81">
         <v>3422655</v>
       </c>
-      <c r="F20" s="84">
+      <c r="F20" s="81">
         <v>3550680</v>
       </c>
       <c r="G20" s="55">
         <f t="shared" si="2"/>
         <v>0.21135000000000001</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="81">
         <f t="shared" ref="H20" si="10">H19-F20</f>
         <v>3414364</v>
       </c>
@@ -1816,7 +1820,7 @@
         <f t="shared" ref="I20" si="11">I19-G20</f>
         <v>0.20323595238095235</v>
       </c>
-      <c r="J20" s="95"/>
+      <c r="J20" s="92"/>
       <c r="K20" s="49"/>
       <c r="L20" s="7"/>
     </row>
@@ -1831,17 +1835,17 @@
       <c r="D21" s="54">
         <v>43468</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="81">
         <v>934344</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="81">
         <v>969023</v>
       </c>
       <c r="G21" s="55">
         <f t="shared" si="2"/>
         <v>5.7679940476190475E-2</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="81">
         <f t="shared" ref="H21" si="12">H20-F21</f>
         <v>2445341</v>
       </c>
@@ -1849,7 +1853,7 @@
         <f t="shared" ref="I21" si="13">I20-G21</f>
         <v>0.14555601190476186</v>
       </c>
-      <c r="J21" s="95"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="49"/>
       <c r="L21" s="7"/>
     </row>
@@ -1864,17 +1868,17 @@
       <c r="D22" s="54">
         <v>43852</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="81">
         <v>3991275</v>
       </c>
-      <c r="F22" s="84">
+      <c r="F22" s="81">
         <v>4144291</v>
       </c>
       <c r="G22" s="55">
         <f t="shared" si="2"/>
         <v>0.24668398809523809</v>
       </c>
-      <c r="H22" s="84">
+      <c r="H22" s="81">
         <f t="shared" ref="H22" si="14">H21-F22</f>
         <v>-1698950</v>
       </c>
@@ -1882,7 +1886,7 @@
         <f t="shared" ref="I22" si="15">I21-G22</f>
         <v>-0.10112797619047623</v>
       </c>
-      <c r="J22" s="95">
+      <c r="J22" s="92">
         <v>193</v>
       </c>
       <c r="K22" s="49"/>
@@ -1890,15 +1894,36 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="95"/>
+      <c r="B23" s="54">
+        <v>43864</v>
+      </c>
+      <c r="C23" s="54">
+        <v>43878</v>
+      </c>
+      <c r="D23" s="54">
+        <v>43881</v>
+      </c>
+      <c r="E23" s="82">
+        <v>2788425</v>
+      </c>
+      <c r="F23" s="81">
+        <v>2939530</v>
+      </c>
+      <c r="G23" s="55">
+        <f t="shared" si="2"/>
+        <v>0.17497202380952381</v>
+      </c>
+      <c r="H23" s="81">
+        <f t="shared" ref="H23" si="16">H22-F23</f>
+        <v>-4638480</v>
+      </c>
+      <c r="I23" s="52">
+        <f t="shared" ref="I23" si="17">I22-G23</f>
+        <v>-0.27610000000000001</v>
+      </c>
+      <c r="J23" s="92">
+        <v>193</v>
+      </c>
       <c r="K23" s="49"/>
       <c r="L23" s="7"/>
     </row>
@@ -1907,12 +1932,12 @@
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="84"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="58"/>
-      <c r="H24" s="84"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="57"/>
-      <c r="J24" s="96"/>
+      <c r="J24" s="93"/>
       <c r="K24" s="49"/>
       <c r="L24" s="7"/>
     </row>
@@ -1921,12 +1946,12 @@
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
       <c r="D25" s="61"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="62"/>
-      <c r="H25" s="90"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="63"/>
-      <c r="J25" s="97"/>
+      <c r="J25" s="94"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
@@ -1937,29 +1962,29 @@
       <c r="B26" s="65"/>
       <c r="C26" s="65"/>
       <c r="D26" s="66"/>
-      <c r="E26" s="67">
+      <c r="E26" s="96">
         <f>SUM(E15:E25)</f>
-        <v>17697766</v>
-      </c>
-      <c r="F26" s="68">
+        <v>20486191</v>
+      </c>
+      <c r="F26" s="97">
         <f>SUM(F15:F25)</f>
-        <v>18498950</v>
-      </c>
-      <c r="G26" s="69">
+        <v>21438480</v>
+      </c>
+      <c r="G26" s="67">
         <f>SUM(G15:G25)</f>
-        <v>1.1011279761904762</v>
-      </c>
-      <c r="H26" s="70">
+        <v>1.2761</v>
+      </c>
+      <c r="H26" s="98">
         <f>A15-F26</f>
-        <v>-1698950</v>
-      </c>
-      <c r="I26" s="71">
+        <v>-4638480</v>
+      </c>
+      <c r="I26" s="68">
         <f>1-G26</f>
-        <v>-0.1011279761904762</v>
-      </c>
-      <c r="J26" s="98"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
+        <v>-0.27610000000000001</v>
+      </c>
+      <c r="J26" s="95"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7"/>
@@ -1974,12 +1999,12 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1988,14 +2013,14 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="73" t="s">
+      <c r="B31" s="109"/>
+      <c r="C31" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="70" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="7"/>
@@ -2006,27 +2031,27 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="101">
+      <c r="A32" s="107">
         <f>A15-F26</f>
-        <v>-1698950</v>
-      </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="74">
+        <v>-4638480</v>
+      </c>
+      <c r="B32" s="108"/>
+      <c r="C32" s="71">
         <f>1-G26</f>
-        <v>-0.1011279761904762</v>
-      </c>
-      <c r="D32" s="75">
+        <v>-0.27610000000000001</v>
+      </c>
+      <c r="D32" s="72">
         <f>(C32/0.8)*100</f>
-        <v>-12.640997023809526</v>
-      </c>
-      <c r="E32" s="82" t="s">
+        <v>-34.512500000000003</v>
+      </c>
+      <c r="E32" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="7"/>
@@ -2053,8 +2078,8 @@
     </row>
     <row r="35" spans="1:11" ht="15.6">
       <c r="A35" s="7"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -2064,113 +2089,113 @@
       <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="106"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="79"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="76"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="78"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="79"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="76"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="78"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="79"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="76"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="79"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="76"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="79"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="76"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="78"/>
-      <c r="B42" s="79"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
       <c r="C42" s="50"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
       <c r="F42" s="50"/>
       <c r="G42" s="50"/>
       <c r="H42" s="50"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="78"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="79"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="76"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="78"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="79"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="76"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="79"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="76"/>
     </row>
     <row r="46" spans="1:11" ht="15.6">
       <c r="A46" s="7"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="82"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -2178,31 +2203,31 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="100"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="106"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="78"/>
+      <c r="A48" s="75"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="104"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="78"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="50"/>
@@ -2210,8 +2235,8 @@
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="104"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="7"/>
@@ -2224,23 +2249,18 @@
       <c r="H50" s="7"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="B55" s="99"/>
-      <c r="C55" s="100"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="106"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="B62" s="99"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="106"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A31:B31"/>
@@ -2248,6 +2268,11 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>№Поз</t>
   </si>
@@ -918,7 +918,7 @@
     <xf numFmtId="3" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1252,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1640,7 +1640,7 @@
         <v>2733394</v>
       </c>
       <c r="G15" s="47">
-        <f t="shared" ref="G15:G23" si="2">F15/A$15</f>
+        <f t="shared" ref="G15:G26" si="2">F15/A$15</f>
         <v>0.16270202380952381</v>
       </c>
       <c r="H15" s="86">
@@ -1929,213 +1929,286 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="93"/>
+      <c r="B24" s="54">
+        <v>43885</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="54">
+        <v>43892</v>
+      </c>
+      <c r="E24" s="82">
+        <v>1075275</v>
+      </c>
+      <c r="F24" s="81">
+        <v>1168474</v>
+      </c>
+      <c r="G24" s="55">
+        <f t="shared" si="2"/>
+        <v>6.9552023809523814E-2</v>
+      </c>
+      <c r="H24" s="81">
+        <f t="shared" ref="H24" si="18">H23-F24</f>
+        <v>-5806954</v>
+      </c>
+      <c r="I24" s="52">
+        <f t="shared" ref="I24" si="19">I23-G24</f>
+        <v>-0.34565202380952381</v>
+      </c>
+      <c r="J24" s="92">
+        <v>194</v>
+      </c>
       <c r="K24" s="49"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="7"/>
+    <row r="25" spans="1:12">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="54">
+        <v>43913</v>
+      </c>
+      <c r="D25" s="54">
+        <v>43920</v>
+      </c>
+      <c r="E25" s="82">
+        <v>4239135</v>
+      </c>
+      <c r="F25" s="81">
+        <v>4362725</v>
+      </c>
+      <c r="G25" s="55">
+        <f t="shared" si="2"/>
+        <v>0.25968601190476193</v>
+      </c>
+      <c r="H25" s="81">
+        <f t="shared" ref="H25" si="20">H24-F25</f>
+        <v>-10169679</v>
+      </c>
+      <c r="I25" s="52">
+        <f t="shared" ref="I25" si="21">I24-G25</f>
+        <v>-0.60533803571428568</v>
+      </c>
+      <c r="J25" s="92">
+        <v>195</v>
+      </c>
+      <c r="K25" s="49"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54">
+        <v>43921</v>
+      </c>
+      <c r="D26" s="54">
+        <v>43921</v>
+      </c>
+      <c r="E26" s="82">
+        <v>134865</v>
+      </c>
+      <c r="F26" s="81">
+        <v>184363</v>
+      </c>
+      <c r="G26" s="55">
+        <f t="shared" si="2"/>
+        <v>1.0973988095238096E-2</v>
+      </c>
+      <c r="H26" s="81">
+        <f t="shared" ref="H26" si="22">H25-F26</f>
+        <v>-10354042</v>
+      </c>
+      <c r="I26" s="52">
+        <f t="shared" ref="I26" si="23">I25-G26</f>
+        <v>-0.61631202380952377</v>
+      </c>
+      <c r="J26" s="92">
+        <v>195</v>
+      </c>
+      <c r="K26" s="49"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="13.8" thickBot="1">
+      <c r="A29" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="96">
-        <f>SUM(E15:E25)</f>
-        <v>20486191</v>
-      </c>
-      <c r="F26" s="97">
-        <f>SUM(F15:F25)</f>
-        <v>21438480</v>
-      </c>
-      <c r="G26" s="67">
-        <f>SUM(G15:G25)</f>
-        <v>1.2761</v>
-      </c>
-      <c r="H26" s="98">
-        <f>A15-F26</f>
-        <v>-4638480</v>
-      </c>
-      <c r="I26" s="68">
-        <f>1-G26</f>
-        <v>-0.27610000000000001</v>
-      </c>
-      <c r="J26" s="95"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A30" s="100" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="96">
+        <f>SUM(E15:E28)</f>
+        <v>25935466</v>
+      </c>
+      <c r="F29" s="97">
+        <f>SUM(F15:F28)</f>
+        <v>27154042</v>
+      </c>
+      <c r="G29" s="67">
+        <f>SUM(G15:G28)</f>
+        <v>1.6163120238095239</v>
+      </c>
+      <c r="H29" s="98">
+        <f>A15-F29</f>
+        <v>-10354042</v>
+      </c>
+      <c r="I29" s="68">
+        <f>1-G29</f>
+        <v>-0.61631202380952388</v>
+      </c>
+      <c r="J29" s="95"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A33" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="107">
-        <f>A15-F26</f>
-        <v>-4638480</v>
-      </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="71">
-        <f>1-G26</f>
-        <v>-0.27610000000000001</v>
-      </c>
-      <c r="D32" s="72">
-        <f>(C32/0.8)*100</f>
-        <v>-34.512500000000003</v>
-      </c>
-      <c r="E32" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="109"/>
+      <c r="C34" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>16</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.6">
-      <c r="A35" s="7"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="107">
+        <f>A15-F29</f>
+        <v>-10354042</v>
+      </c>
+      <c r="B35" s="108"/>
+      <c r="C35" s="71">
+        <f>1-G29</f>
+        <v>-0.61631202380952388</v>
+      </c>
+      <c r="D35" s="72">
+        <f>(C35/0.8)*100</f>
+        <v>-77.039002976190488</v>
+      </c>
+      <c r="E35" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="106"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="75"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="76"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="75"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="76"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.6">
+      <c r="A38" s="7"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="75"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="76"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="106"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="75"/>
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="76"/>
       <c r="G40" s="77"/>
       <c r="H40" s="76"/>
@@ -2144,8 +2217,8 @@
       <c r="A41" s="75"/>
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
       <c r="F41" s="76"/>
       <c r="G41" s="77"/>
       <c r="H41" s="76"/>
@@ -2153,12 +2226,12 @@
     <row r="42" spans="1:11">
       <c r="A42" s="75"/>
       <c r="B42" s="76"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="76"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="75"/>
@@ -2174,8 +2247,8 @@
       <c r="A44" s="75"/>
       <c r="B44" s="76"/>
       <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="76"/>
       <c r="G44" s="77"/>
       <c r="H44" s="76"/>
@@ -2183,95 +2256,125 @@
     <row r="45" spans="1:11">
       <c r="A45" s="75"/>
       <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="76"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.6">
-      <c r="A46" s="7"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="75"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="76"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="74"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="106"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="76"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="75"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="77"/>
+      <c r="F48" s="76"/>
       <c r="G48" s="77"/>
       <c r="H48" s="76"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="75"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.6">
+      <c r="A49" s="7"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="B55" s="105"/>
-      <c r="C55" s="106"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="B62" s="105"/>
-      <c r="C62" s="106"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="106"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="75"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="101"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="75"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="105"/>
+      <c r="C58" s="106"/>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="105"/>
+      <c r="C65" s="106"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B49:D49"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2280,7 +2383,7 @@
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="12" man="1"/>
+    <brk id="35" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="18780" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -921,20 +921,6 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,6 +930,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1254,51 +1254,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="12.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="104" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -1306,7 +1306,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" thickBot="1">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1318,7 +1318,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <f>A5+1</f>
         <v>2</v>
@@ -1411,7 +1411,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <f t="shared" ref="A7:A11" si="1">A6+1</f>
         <v>3</v>
@@ -1439,7 +1439,7 @@
       <c r="K7" s="29"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1467,7 +1467,7 @@
       <c r="K8" s="29"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1497,7 +1497,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1527,7 +1527,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" customHeight="1">
+    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1557,7 +1557,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
       <c r="C12" s="7"/>
@@ -1569,7 +1569,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="16.2" thickBot="1">
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="38" t="s">
         <v>10</v>
@@ -1585,7 +1585,7 @@
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
     </row>
-    <row r="14" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="14" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>20</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="45">
         <f>D5*700000</f>
         <v>16800000</v>
@@ -1657,7 +1657,7 @@
       <c r="K15" s="50"/>
       <c r="L15" s="50"/>
     </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1">
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="51" t="s">
         <v>38</v>
@@ -1690,7 +1690,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1">
+    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="53"/>
       <c r="B17" s="54">
         <v>43767</v>
@@ -1723,7 +1723,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="54" t="s">
         <v>38</v>
@@ -1756,7 +1756,7 @@
       <c r="K18" s="49"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
       <c r="B19" s="54">
         <v>43789</v>
@@ -1791,7 +1791,7 @@
       <c r="K19" s="56"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="54" t="s">
         <v>38</v>
@@ -1824,7 +1824,7 @@
       <c r="K20" s="49"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="54">
         <v>43826</v>
@@ -1857,7 +1857,7 @@
       <c r="K21" s="49"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="54" t="s">
         <v>38</v>
@@ -1892,7 +1892,7 @@
       <c r="K22" s="49"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="54">
         <v>43864</v>
@@ -1927,7 +1927,7 @@
       <c r="K23" s="49"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="54">
         <v>43885</v>
@@ -1962,7 +1962,7 @@
       <c r="K24" s="49"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="54" t="s">
         <v>38</v>
@@ -1997,7 +1997,7 @@
       <c r="K25" s="49"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54">
@@ -2030,7 +2030,7 @@
       <c r="K26" s="49"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -2044,7 +2044,7 @@
       <c r="K27" s="49"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="13.8" thickBot="1">
+    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
@@ -2058,7 +2058,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="13.8" thickBot="1">
+    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="64" t="s">
         <v>25</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2101,13 +2101,13 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A33" s="100" t="s">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2115,11 +2115,11 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="109" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="109"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="70" t="s">
         <v>15</v>
       </c>
@@ -2133,12 +2133,12 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="107">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="101">
         <f>A15-F29</f>
         <v>-10354042</v>
       </c>
-      <c r="B35" s="108"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="71">
         <f>1-G29</f>
         <v>-0.61631202380952388</v>
@@ -2156,7 +2156,7 @@
       <c r="I35" s="79"/>
       <c r="J35" s="79"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2164,7 +2164,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2179,7 +2179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
@@ -2191,7 +2191,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="74"/>
       <c r="B39" s="74"/>
       <c r="C39" s="74"/>
@@ -2200,10 +2200,10 @@
       <c r="F39" s="74"/>
       <c r="G39" s="74"/>
       <c r="H39" s="74"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="106"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="75"/>
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
@@ -2213,7 +2213,7 @@
       <c r="G40" s="77"/>
       <c r="H40" s="76"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="75"/>
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
@@ -2223,7 +2223,7 @@
       <c r="G41" s="77"/>
       <c r="H41" s="76"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="75"/>
       <c r="B42" s="76"/>
       <c r="C42" s="76"/>
@@ -2233,7 +2233,7 @@
       <c r="G42" s="77"/>
       <c r="H42" s="76"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="75"/>
       <c r="B43" s="76"/>
       <c r="C43" s="76"/>
@@ -2243,7 +2243,7 @@
       <c r="G43" s="77"/>
       <c r="H43" s="76"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="75"/>
       <c r="B44" s="76"/>
       <c r="C44" s="76"/>
@@ -2253,7 +2253,7 @@
       <c r="G44" s="77"/>
       <c r="H44" s="76"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="75"/>
       <c r="B45" s="76"/>
       <c r="C45" s="50"/>
@@ -2263,7 +2263,7 @@
       <c r="G45" s="50"/>
       <c r="H45" s="50"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="75"/>
       <c r="B46" s="76"/>
       <c r="C46" s="76"/>
@@ -2273,7 +2273,7 @@
       <c r="G46" s="77"/>
       <c r="H46" s="76"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="75"/>
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
@@ -2283,7 +2283,7 @@
       <c r="G47" s="77"/>
       <c r="H47" s="76"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="75"/>
       <c r="B48" s="76"/>
       <c r="C48" s="76"/>
@@ -2293,11 +2293,11 @@
       <c r="G48" s="77"/>
       <c r="H48" s="76"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="103"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="108"/>
       <c r="E49" s="79"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -2305,7 +2305,7 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="74"/>
       <c r="B50" s="74"/>
       <c r="C50" s="74"/>
@@ -2314,10 +2314,10 @@
       <c r="F50" s="74"/>
       <c r="G50" s="74"/>
       <c r="H50" s="74"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="106"/>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="I50" s="99"/>
+      <c r="J50" s="100"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="75"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2326,10 +2326,10 @@
       <c r="F51" s="77"/>
       <c r="G51" s="77"/>
       <c r="H51" s="76"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="101"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="I51" s="104"/>
+      <c r="J51" s="104"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="75"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2338,10 +2338,10 @@
       <c r="F52" s="50"/>
       <c r="G52" s="50"/>
       <c r="H52" s="50"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2351,19 +2351,24 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="58" spans="1:10">
-      <c r="B58" s="105"/>
-      <c r="C58" s="106"/>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="105"/>
-      <c r="C65" s="106"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="99"/>
+      <c r="C58" s="100"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="99"/>
+      <c r="C65" s="100"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A34:B34"/>
@@ -2371,11 +2376,6 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="I50:J50"/>
     <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2394,7 +2394,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2410,17 +2410,17 @@
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XIII-В-28-2-200-3 (Фляга  0,2 л.)/№2 XIII-В-28-2-200-3 (Фляга  0,2 л.) от 16.09.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\XIII-В-28-2-200-3 (Фляга  0,2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF653FD-633C-4A3F-9042-C6B09D6211B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$35</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -155,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -663,7 +671,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -808,9 +816,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1041,6 +1046,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1076,6 +1098,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1251,11 +1290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1276,29 +1315,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="5"/>
@@ -1363,7 +1402,7 @@
       <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="87" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="17">
@@ -1535,7 +1574,7 @@
       <c r="B11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="88" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="25">
@@ -1633,17 +1672,17 @@
       <c r="D15" s="46">
         <v>43739</v>
       </c>
-      <c r="E15" s="80">
+      <c r="E15" s="79">
         <v>2566080</v>
       </c>
-      <c r="F15" s="80">
+      <c r="F15" s="79">
         <v>2733394</v>
       </c>
       <c r="G15" s="47">
-        <f t="shared" ref="G15:G26" si="2">F15/A$15</f>
+        <f t="shared" ref="G15:G27" si="2">F15/A$15</f>
         <v>0.16270202380952381</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="85">
         <f>A15-F15</f>
         <v>14066606</v>
       </c>
@@ -1651,7 +1690,7 @@
         <f>1-G15</f>
         <v>0.83729797619047619</v>
       </c>
-      <c r="J15" s="91">
+      <c r="J15" s="90">
         <v>192</v>
       </c>
       <c r="K15" s="50"/>
@@ -1668,17 +1707,17 @@
       <c r="D16" s="51">
         <v>43756</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="89">
         <v>2846745</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="89">
         <v>2962109</v>
       </c>
       <c r="G16" s="47">
         <f t="shared" si="2"/>
         <v>0.1763160119047619</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="80">
         <f t="shared" ref="H16:I16" si="3">H15-F16</f>
         <v>11104497</v>
       </c>
@@ -1686,7 +1725,7 @@
         <f t="shared" si="3"/>
         <v>0.66098196428571432</v>
       </c>
-      <c r="J16" s="92"/>
+      <c r="J16" s="91"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
@@ -1701,17 +1740,17 @@
       <c r="D17" s="54">
         <v>43770</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="80">
         <v>524880</v>
       </c>
-      <c r="F17" s="81">
+      <c r="F17" s="80">
         <v>587765</v>
       </c>
       <c r="G17" s="47">
         <f t="shared" si="2"/>
         <v>3.4986011904761902E-2</v>
       </c>
-      <c r="H17" s="81">
+      <c r="H17" s="80">
         <f t="shared" ref="H17" si="4">H16-F17</f>
         <v>10516732</v>
       </c>
@@ -1719,7 +1758,7 @@
         <f t="shared" ref="I17" si="5">I16-G17</f>
         <v>0.6259959523809524</v>
       </c>
-      <c r="J17" s="92"/>
+      <c r="J17" s="91"/>
       <c r="K17" s="50"/>
       <c r="L17" s="50"/>
     </row>
@@ -1734,17 +1773,17 @@
       <c r="D18" s="54">
         <v>43782</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="81">
         <v>1337715</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="82">
         <v>1385395</v>
       </c>
       <c r="G18" s="47">
         <f t="shared" si="2"/>
         <v>8.2463988095238097E-2</v>
       </c>
-      <c r="H18" s="81">
+      <c r="H18" s="80">
         <f t="shared" ref="H18" si="6">H17-F18</f>
         <v>9131337</v>
       </c>
@@ -1752,7 +1791,7 @@
         <f t="shared" ref="I18" si="7">I17-G18</f>
         <v>0.54353196428571426</v>
       </c>
-      <c r="J18" s="92"/>
+      <c r="J18" s="91"/>
       <c r="K18" s="49"/>
       <c r="L18" s="7"/>
     </row>
@@ -1767,17 +1806,17 @@
       <c r="D19" s="54">
         <v>43801</v>
       </c>
-      <c r="E19" s="81">
+      <c r="E19" s="80">
         <v>2074072</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="80">
         <v>2166293</v>
       </c>
       <c r="G19" s="55">
         <f t="shared" si="2"/>
         <v>0.1289460119047619</v>
       </c>
-      <c r="H19" s="81">
+      <c r="H19" s="80">
         <f t="shared" ref="H19" si="8">H18-F19</f>
         <v>6965044</v>
       </c>
@@ -1785,7 +1824,7 @@
         <f t="shared" ref="I19" si="9">I18-G19</f>
         <v>0.41458595238095236</v>
       </c>
-      <c r="J19" s="92">
+      <c r="J19" s="91">
         <v>192</v>
       </c>
       <c r="K19" s="56"/>
@@ -1802,17 +1841,17 @@
       <c r="D20" s="54">
         <v>43833</v>
       </c>
-      <c r="E20" s="81">
+      <c r="E20" s="80">
         <v>3422655</v>
       </c>
-      <c r="F20" s="81">
+      <c r="F20" s="80">
         <v>3550680</v>
       </c>
       <c r="G20" s="55">
         <f t="shared" si="2"/>
         <v>0.21135000000000001</v>
       </c>
-      <c r="H20" s="81">
+      <c r="H20" s="80">
         <f t="shared" ref="H20" si="10">H19-F20</f>
         <v>3414364</v>
       </c>
@@ -1820,7 +1859,7 @@
         <f t="shared" ref="I20" si="11">I19-G20</f>
         <v>0.20323595238095235</v>
       </c>
-      <c r="J20" s="92"/>
+      <c r="J20" s="91"/>
       <c r="K20" s="49"/>
       <c r="L20" s="7"/>
     </row>
@@ -1835,17 +1874,17 @@
       <c r="D21" s="54">
         <v>43468</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="80">
         <v>934344</v>
       </c>
-      <c r="F21" s="81">
+      <c r="F21" s="80">
         <v>969023</v>
       </c>
       <c r="G21" s="55">
         <f t="shared" si="2"/>
         <v>5.7679940476190475E-2</v>
       </c>
-      <c r="H21" s="81">
+      <c r="H21" s="80">
         <f t="shared" ref="H21" si="12">H20-F21</f>
         <v>2445341</v>
       </c>
@@ -1853,7 +1892,7 @@
         <f t="shared" ref="I21" si="13">I20-G21</f>
         <v>0.14555601190476186</v>
       </c>
-      <c r="J21" s="92"/>
+      <c r="J21" s="91"/>
       <c r="K21" s="49"/>
       <c r="L21" s="7"/>
     </row>
@@ -1868,17 +1907,17 @@
       <c r="D22" s="54">
         <v>43852</v>
       </c>
-      <c r="E22" s="81">
+      <c r="E22" s="80">
         <v>3991275</v>
       </c>
-      <c r="F22" s="81">
+      <c r="F22" s="80">
         <v>4144291</v>
       </c>
       <c r="G22" s="55">
         <f t="shared" si="2"/>
         <v>0.24668398809523809</v>
       </c>
-      <c r="H22" s="81">
+      <c r="H22" s="80">
         <f t="shared" ref="H22" si="14">H21-F22</f>
         <v>-1698950</v>
       </c>
@@ -1886,7 +1925,7 @@
         <f t="shared" ref="I22" si="15">I21-G22</f>
         <v>-0.10112797619047623</v>
       </c>
-      <c r="J22" s="92">
+      <c r="J22" s="91">
         <v>193</v>
       </c>
       <c r="K22" s="49"/>
@@ -1903,17 +1942,17 @@
       <c r="D23" s="54">
         <v>43881</v>
       </c>
-      <c r="E23" s="82">
+      <c r="E23" s="81">
         <v>2788425</v>
       </c>
-      <c r="F23" s="81">
+      <c r="F23" s="80">
         <v>2939530</v>
       </c>
       <c r="G23" s="55">
         <f t="shared" si="2"/>
         <v>0.17497202380952381</v>
       </c>
-      <c r="H23" s="81">
+      <c r="H23" s="80">
         <f t="shared" ref="H23" si="16">H22-F23</f>
         <v>-4638480</v>
       </c>
@@ -1921,7 +1960,7 @@
         <f t="shared" ref="I23" si="17">I22-G23</f>
         <v>-0.27610000000000001</v>
       </c>
-      <c r="J23" s="92">
+      <c r="J23" s="91">
         <v>193</v>
       </c>
       <c r="K23" s="49"/>
@@ -1938,17 +1977,17 @@
       <c r="D24" s="54">
         <v>43892</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="81">
         <v>1075275</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="80">
         <v>1168474</v>
       </c>
       <c r="G24" s="55">
         <f t="shared" si="2"/>
         <v>6.9552023809523814E-2</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="80">
         <f t="shared" ref="H24" si="18">H23-F24</f>
         <v>-5806954</v>
       </c>
@@ -1956,7 +1995,7 @@
         <f t="shared" ref="I24" si="19">I23-G24</f>
         <v>-0.34565202380952381</v>
       </c>
-      <c r="J24" s="92">
+      <c r="J24" s="91">
         <v>194</v>
       </c>
       <c r="K24" s="49"/>
@@ -1973,17 +2012,17 @@
       <c r="D25" s="54">
         <v>43920</v>
       </c>
-      <c r="E25" s="82">
+      <c r="E25" s="81">
         <v>4239135</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="80">
         <v>4362725</v>
       </c>
       <c r="G25" s="55">
         <f t="shared" si="2"/>
         <v>0.25968601190476193</v>
       </c>
-      <c r="H25" s="81">
+      <c r="H25" s="80">
         <f t="shared" ref="H25" si="20">H24-F25</f>
         <v>-10169679</v>
       </c>
@@ -1991,7 +2030,7 @@
         <f t="shared" ref="I25" si="21">I24-G25</f>
         <v>-0.60533803571428568</v>
       </c>
-      <c r="J25" s="92">
+      <c r="J25" s="91">
         <v>195</v>
       </c>
       <c r="K25" s="49"/>
@@ -2006,25 +2045,25 @@
       <c r="D26" s="54">
         <v>43921</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="81">
         <v>134865</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="80">
         <v>184363</v>
       </c>
       <c r="G26" s="55">
         <f t="shared" si="2"/>
         <v>1.0973988095238096E-2</v>
       </c>
-      <c r="H26" s="81">
-        <f t="shared" ref="H26" si="22">H25-F26</f>
+      <c r="H26" s="80">
+        <f t="shared" ref="H26:H27" si="22">H25-F26</f>
         <v>-10354042</v>
       </c>
       <c r="I26" s="52">
-        <f t="shared" ref="I26" si="23">I25-G26</f>
+        <f t="shared" ref="I26:I27" si="23">I25-G26</f>
         <v>-0.61631202380952377</v>
       </c>
-      <c r="J26" s="92">
+      <c r="J26" s="91">
         <v>195</v>
       </c>
       <c r="K26" s="49"/>
@@ -2032,62 +2071,83 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="93"/>
+      <c r="B27" s="54">
+        <v>43922</v>
+      </c>
+      <c r="C27" s="54">
+        <v>43941</v>
+      </c>
+      <c r="D27" s="54">
+        <v>43941</v>
+      </c>
+      <c r="E27" s="81">
+        <v>3930155</v>
+      </c>
+      <c r="F27" s="80">
+        <v>4059576</v>
+      </c>
+      <c r="G27" s="57">
+        <f t="shared" si="2"/>
+        <v>0.24164142857142856</v>
+      </c>
+      <c r="H27" s="80">
+        <f t="shared" si="22"/>
+        <v>-14413618</v>
+      </c>
+      <c r="I27" s="52">
+        <f t="shared" si="23"/>
+        <v>-0.85795345238095233</v>
+      </c>
+      <c r="J27" s="92">
+        <v>196</v>
+      </c>
       <c r="K27" s="49"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="94"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="93"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="96">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="95">
         <f>SUM(E15:E28)</f>
-        <v>25935466</v>
-      </c>
-      <c r="F29" s="97">
+        <v>29865621</v>
+      </c>
+      <c r="F29" s="96">
         <f>SUM(F15:F28)</f>
-        <v>27154042</v>
-      </c>
-      <c r="G29" s="67">
+        <v>31213618</v>
+      </c>
+      <c r="G29" s="66">
         <f>SUM(G15:G28)</f>
-        <v>1.6163120238095239</v>
-      </c>
-      <c r="H29" s="98">
+        <v>1.8579534523809524</v>
+      </c>
+      <c r="H29" s="97">
         <f>A15-F29</f>
-        <v>-10354042</v>
-      </c>
-      <c r="I29" s="68">
+        <v>-14413618</v>
+      </c>
+      <c r="I29" s="67">
         <f>1-G29</f>
-        <v>-0.61631202380952388</v>
-      </c>
-      <c r="J29" s="95"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
+        <v>-0.85795345238095244</v>
+      </c>
+      <c r="J29" s="94"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
@@ -2102,12 +2162,12 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2116,14 +2176,14 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="70" t="s">
+      <c r="B34" s="102"/>
+      <c r="C34" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="70" t="s">
+      <c r="D34" s="69" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="7"/>
@@ -2134,27 +2194,27 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="101">
+      <c r="A35" s="100">
         <f>A15-F29</f>
-        <v>-10354042</v>
-      </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="71">
+        <v>-14413618</v>
+      </c>
+      <c r="B35" s="101"/>
+      <c r="C35" s="70">
         <f>1-G29</f>
-        <v>-0.61631202380952388</v>
-      </c>
-      <c r="D35" s="72">
+        <v>-0.85795345238095244</v>
+      </c>
+      <c r="D35" s="71">
         <f>(C35/0.8)*100</f>
-        <v>-77.039002976190488</v>
-      </c>
-      <c r="E35" s="79" t="s">
+        <v>-107.24418154761905</v>
+      </c>
+      <c r="E35" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
@@ -2181,8 +2241,8 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -2192,113 +2252,113 @@
       <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="99"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="76"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="75"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="76"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="75"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="76"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="75"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="75"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="76"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="75"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="76"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="75"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="75"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
       <c r="F45" s="50"/>
       <c r="G45" s="50"/>
       <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="76"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="75"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="76"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="75"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="75"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="76"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="75"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="79"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="78"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -2306,31 +2366,31 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="100"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="99"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="75"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="104"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="50"/>
@@ -2338,8 +2398,8 @@
       <c r="F52" s="50"/>
       <c r="G52" s="50"/>
       <c r="H52" s="50"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -2352,12 +2412,12 @@
       <c r="H53" s="7"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="99"/>
-      <c r="C58" s="100"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="99"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="99"/>
-      <c r="C65" s="100"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="99"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
@@ -2389,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2403,7 +2463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
